--- a/data/pca/factorExposure/factorExposure_2016-11-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01846341307885124</v>
+        <v>0.01589710843316692</v>
       </c>
       <c r="C2">
-        <v>0.04476045000440383</v>
+        <v>-0.04362972311028396</v>
       </c>
       <c r="D2">
-        <v>-0.02122849349134415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05406609764162105</v>
+      </c>
+      <c r="E2">
+        <v>-0.01858342739442381</v>
+      </c>
+      <c r="F2">
+        <v>-0.08915202328621993</v>
+      </c>
+      <c r="G2">
+        <v>-0.03700143866864911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05540461431252435</v>
+        <v>0.03526333840522227</v>
       </c>
       <c r="C3">
-        <v>0.102561111640902</v>
+        <v>-0.08667569750217995</v>
       </c>
       <c r="D3">
-        <v>-0.02603043978421352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09433535681265566</v>
+      </c>
+      <c r="E3">
+        <v>-0.03123139928929542</v>
+      </c>
+      <c r="F3">
+        <v>-0.08813304602004539</v>
+      </c>
+      <c r="G3">
+        <v>0.06902181361599428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06284463903215651</v>
+        <v>0.05869374701741865</v>
       </c>
       <c r="C4">
-        <v>0.06604689124739052</v>
+        <v>-0.06141280984191198</v>
       </c>
       <c r="D4">
-        <v>-0.0002187765454766236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05438579102836578</v>
+      </c>
+      <c r="E4">
+        <v>-0.01270788981716769</v>
+      </c>
+      <c r="F4">
+        <v>-0.09509491298087312</v>
+      </c>
+      <c r="G4">
+        <v>0.02526572086990736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02584895637009327</v>
+        <v>0.03544093983914193</v>
       </c>
       <c r="C6">
-        <v>0.05123115362515713</v>
+        <v>-0.03847604296662489</v>
       </c>
       <c r="D6">
-        <v>-0.008750356948978067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06361098566504837</v>
+      </c>
+      <c r="E6">
+        <v>-0.0174749111904226</v>
+      </c>
+      <c r="F6">
+        <v>-0.08774101260882294</v>
+      </c>
+      <c r="G6">
+        <v>0.005623415955642731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02213056348186709</v>
+        <v>0.02248089011836202</v>
       </c>
       <c r="C7">
-        <v>0.04558023810687718</v>
+        <v>-0.03794168598322707</v>
       </c>
       <c r="D7">
-        <v>0.01472905939860208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.02899113982824184</v>
+      </c>
+      <c r="E7">
+        <v>-0.0001510165611822172</v>
+      </c>
+      <c r="F7">
+        <v>-0.1173751479328578</v>
+      </c>
+      <c r="G7">
+        <v>-0.01167981353394048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00189796317241501</v>
+        <v>0.006892762912254929</v>
       </c>
       <c r="C8">
-        <v>0.01026972171761683</v>
+        <v>-0.02014762536139039</v>
       </c>
       <c r="D8">
-        <v>-0.01466418731818638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03340612762116775</v>
+      </c>
+      <c r="E8">
+        <v>-0.01142282384074351</v>
+      </c>
+      <c r="F8">
+        <v>-0.06952460749218628</v>
+      </c>
+      <c r="G8">
+        <v>0.004668956030467652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02972765082255541</v>
+        <v>0.03739059251553396</v>
       </c>
       <c r="C9">
-        <v>0.04573973601133507</v>
+        <v>-0.04817505199776223</v>
       </c>
       <c r="D9">
-        <v>0.005359802249796021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03683996724162424</v>
+      </c>
+      <c r="E9">
+        <v>-0.009414662747084903</v>
+      </c>
+      <c r="F9">
+        <v>-0.09928462700264652</v>
+      </c>
+      <c r="G9">
+        <v>0.00792436762756721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08195614678108944</v>
+        <v>0.09336132303713934</v>
       </c>
       <c r="C10">
-        <v>-0.1995913387368814</v>
+        <v>0.1960320978135428</v>
       </c>
       <c r="D10">
-        <v>-0.02356992359015185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01091956237312192</v>
+      </c>
+      <c r="E10">
+        <v>-0.03430274210784144</v>
+      </c>
+      <c r="F10">
+        <v>-0.05261731366240667</v>
+      </c>
+      <c r="G10">
+        <v>-0.0008320153535738542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04267067209388374</v>
+        <v>0.0381857022501449</v>
       </c>
       <c r="C11">
-        <v>0.05535821854920772</v>
+        <v>-0.05240189959276856</v>
       </c>
       <c r="D11">
-        <v>0.01183984106603971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02464526510966154</v>
+      </c>
+      <c r="E11">
+        <v>0.01280847088789452</v>
+      </c>
+      <c r="F11">
+        <v>-0.06808302987317275</v>
+      </c>
+      <c r="G11">
+        <v>0.005397610939923041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03656761395853907</v>
+        <v>0.03856315343745646</v>
       </c>
       <c r="C12">
-        <v>0.04568316214405468</v>
+        <v>-0.04707891517043158</v>
       </c>
       <c r="D12">
-        <v>0.01034956017241003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01801779961364685</v>
+      </c>
+      <c r="E12">
+        <v>0.003409111442148287</v>
+      </c>
+      <c r="F12">
+        <v>-0.06980466044334528</v>
+      </c>
+      <c r="G12">
+        <v>0.0005090975120548852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01140527605758635</v>
+        <v>0.01483008748761317</v>
       </c>
       <c r="C13">
-        <v>0.04204425022399857</v>
+        <v>-0.04160621468273184</v>
       </c>
       <c r="D13">
-        <v>-0.01598150952625405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06020890164655973</v>
+      </c>
+      <c r="E13">
+        <v>-0.02883027520266283</v>
+      </c>
+      <c r="F13">
+        <v>-0.1333040988938158</v>
+      </c>
+      <c r="G13">
+        <v>0.006399583263120673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.005936138140664958</v>
+        <v>0.008678530061373917</v>
       </c>
       <c r="C14">
-        <v>0.03083916282427961</v>
+        <v>-0.02790083869808941</v>
       </c>
       <c r="D14">
-        <v>0.01397327049076366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02257869112345512</v>
+      </c>
+      <c r="E14">
+        <v>-0.006977440808862224</v>
+      </c>
+      <c r="F14">
+        <v>-0.1051572494700311</v>
+      </c>
+      <c r="G14">
+        <v>-0.01598519147115783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001135584222988795</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0005669535901748574</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001813954074039296</v>
+      </c>
+      <c r="E15">
+        <v>0.0009977710318836166</v>
+      </c>
+      <c r="F15">
+        <v>-0.0009776156719047114</v>
+      </c>
+      <c r="G15">
+        <v>-0.0007997590214328092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03570656795798892</v>
+        <v>0.03542560136374905</v>
       </c>
       <c r="C16">
-        <v>0.04048032908465377</v>
+        <v>-0.04494496261700578</v>
       </c>
       <c r="D16">
-        <v>0.002298345430293202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02283638330891991</v>
+      </c>
+      <c r="E16">
+        <v>-0.002976864830855898</v>
+      </c>
+      <c r="F16">
+        <v>-0.0738001521009292</v>
+      </c>
+      <c r="G16">
+        <v>-0.00939842414417192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03396939291393294</v>
+        <v>0.02087724845872208</v>
       </c>
       <c r="C19">
-        <v>0.05938343790241552</v>
+        <v>-0.04968262102703484</v>
       </c>
       <c r="D19">
-        <v>-0.03398726822770155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1002133509711047</v>
+      </c>
+      <c r="E19">
+        <v>-0.03251838560821128</v>
+      </c>
+      <c r="F19">
+        <v>-0.1374246594182107</v>
+      </c>
+      <c r="G19">
+        <v>-0.02510366810963832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01413597681598563</v>
+        <v>0.01641130763968588</v>
       </c>
       <c r="C20">
-        <v>0.04477610176892546</v>
+        <v>-0.03881216417347033</v>
       </c>
       <c r="D20">
-        <v>-0.02121134892369547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0443654650442569</v>
+      </c>
+      <c r="E20">
+        <v>-0.03455830289739515</v>
+      </c>
+      <c r="F20">
+        <v>-0.1015200278735074</v>
+      </c>
+      <c r="G20">
+        <v>-0.009070621792818194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00773193813038354</v>
+        <v>0.01077343392308975</v>
       </c>
       <c r="C21">
-        <v>0.04020218385073351</v>
+        <v>-0.04018237462639423</v>
       </c>
       <c r="D21">
-        <v>-0.02490741339249524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06125453756805894</v>
+      </c>
+      <c r="E21">
+        <v>-0.02970851714831282</v>
+      </c>
+      <c r="F21">
+        <v>-0.1501887263677887</v>
+      </c>
+      <c r="G21">
+        <v>-0.007105283367610343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.004648562142297426</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01494100989080849</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02485146939368575</v>
+      </c>
+      <c r="E22">
+        <v>-0.001964686166175778</v>
+      </c>
+      <c r="F22">
+        <v>-0.02022828504522855</v>
+      </c>
+      <c r="G22">
+        <v>0.03289302001562235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.004702482346590663</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01489007291425372</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02459959709913218</v>
+      </c>
+      <c r="E23">
+        <v>-0.002273278000462224</v>
+      </c>
+      <c r="F23">
+        <v>-0.01995498056028785</v>
+      </c>
+      <c r="G23">
+        <v>0.03291615006436494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0296616804000002</v>
+        <v>0.03375058909699594</v>
       </c>
       <c r="C24">
-        <v>0.04730419726791089</v>
+        <v>-0.05203011857864303</v>
       </c>
       <c r="D24">
-        <v>0.0121798853406941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01934901905952978</v>
+      </c>
+      <c r="E24">
+        <v>0.003732822669575399</v>
+      </c>
+      <c r="F24">
+        <v>-0.07772616574292192</v>
+      </c>
+      <c r="G24">
+        <v>-0.005134478790712041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04764810111742389</v>
+        <v>0.04447865829451946</v>
       </c>
       <c r="C25">
-        <v>0.05551150473221629</v>
+        <v>-0.0564554116624728</v>
       </c>
       <c r="D25">
-        <v>0.0230422224702546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01545929843049455</v>
+      </c>
+      <c r="E25">
+        <v>0.005645045117329761</v>
+      </c>
+      <c r="F25">
+        <v>-0.08448581523333482</v>
+      </c>
+      <c r="G25">
+        <v>0.01265494854917793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009802029180525784</v>
+        <v>0.01565153645986569</v>
       </c>
       <c r="C26">
-        <v>0.01270574925520611</v>
+        <v>-0.01324218638829971</v>
       </c>
       <c r="D26">
-        <v>0.00137895016515106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0166524780194578</v>
+      </c>
+      <c r="E26">
+        <v>-0.009159282265666008</v>
+      </c>
+      <c r="F26">
+        <v>-0.08177570269016729</v>
+      </c>
+      <c r="G26">
+        <v>-0.02185707410098839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09534528518414336</v>
+        <v>0.1261164302363938</v>
       </c>
       <c r="C28">
-        <v>-0.2267396684289091</v>
+        <v>0.2461046352949155</v>
       </c>
       <c r="D28">
-        <v>-0.013335388775615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.008566504431769258</v>
+      </c>
+      <c r="E28">
+        <v>-0.03769362073129232</v>
+      </c>
+      <c r="F28">
+        <v>-0.06347429064079252</v>
+      </c>
+      <c r="G28">
+        <v>0.005195888256386126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01122650248758693</v>
+        <v>0.009616649214784848</v>
       </c>
       <c r="C29">
-        <v>0.02221839675227621</v>
+        <v>-0.02300126107752862</v>
       </c>
       <c r="D29">
-        <v>0.01120268950718559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01308508373617846</v>
+      </c>
+      <c r="E29">
+        <v>-0.01177898115487779</v>
+      </c>
+      <c r="F29">
+        <v>-0.09979675837673592</v>
+      </c>
+      <c r="G29">
+        <v>-0.003100913012124108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04181878592352894</v>
+        <v>0.03994186225612939</v>
       </c>
       <c r="C30">
-        <v>0.07283331158766629</v>
+        <v>-0.06510041217965026</v>
       </c>
       <c r="D30">
-        <v>0.002320079314822726</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09105703120600653</v>
+      </c>
+      <c r="E30">
+        <v>0.01313315377962623</v>
+      </c>
+      <c r="F30">
+        <v>-0.1086094285625863</v>
+      </c>
+      <c r="G30">
+        <v>-0.02949585431886776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04318393705127488</v>
+        <v>0.05809942512884859</v>
       </c>
       <c r="C31">
-        <v>0.03078396865349597</v>
+        <v>-0.0438647779314426</v>
       </c>
       <c r="D31">
-        <v>0.01112901180165854</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003595654785197475</v>
+      </c>
+      <c r="E31">
+        <v>-0.03364751865476966</v>
+      </c>
+      <c r="F31">
+        <v>-0.09352357097099671</v>
+      </c>
+      <c r="G31">
+        <v>0.02930376504980382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.008168459591335225</v>
+        <v>0.005462931502719369</v>
       </c>
       <c r="C32">
-        <v>0.03502432411355987</v>
+        <v>-0.02800312413690896</v>
       </c>
       <c r="D32">
-        <v>-0.009759831106920172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04378208111833746</v>
+      </c>
+      <c r="E32">
+        <v>0.004167302688638407</v>
+      </c>
+      <c r="F32">
+        <v>-0.07866104146047995</v>
+      </c>
+      <c r="G32">
+        <v>-0.01174090975250446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03168325336824448</v>
+        <v>0.02814532236703035</v>
       </c>
       <c r="C33">
-        <v>0.05697784946722977</v>
+        <v>-0.04883188512966297</v>
       </c>
       <c r="D33">
-        <v>-0.003797141429027873</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06982178663564466</v>
+      </c>
+      <c r="E33">
+        <v>-0.0086983652222066</v>
+      </c>
+      <c r="F33">
+        <v>-0.1520390132456446</v>
+      </c>
+      <c r="G33">
+        <v>0.004665111508239683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05348311597094221</v>
+        <v>0.04430779837732484</v>
       </c>
       <c r="C34">
-        <v>0.05393697821571316</v>
+        <v>-0.06195659388104404</v>
       </c>
       <c r="D34">
-        <v>0.01817946496456413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02286412579097611</v>
+      </c>
+      <c r="E34">
+        <v>0.01892470610402436</v>
+      </c>
+      <c r="F34">
+        <v>-0.07756509400955111</v>
+      </c>
+      <c r="G34">
+        <v>0.000346510479220111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01046475233876596</v>
+        <v>0.01628525882532666</v>
       </c>
       <c r="C36">
-        <v>0.007878745931780238</v>
+        <v>-0.008439680714378941</v>
       </c>
       <c r="D36">
-        <v>0.00610499769581526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01956257348821156</v>
+      </c>
+      <c r="E36">
+        <v>-0.01433297583327178</v>
+      </c>
+      <c r="F36">
+        <v>-0.09605554036829346</v>
+      </c>
+      <c r="G36">
+        <v>-0.0005704926971366508</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03801105168398258</v>
+        <v>0.03004220879966619</v>
       </c>
       <c r="C38">
-        <v>0.02162795615301672</v>
+        <v>-0.02129784244029963</v>
       </c>
       <c r="D38">
-        <v>0.009810657960991511</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02082074836258479</v>
+      </c>
+      <c r="E38">
+        <v>-0.01499406630196467</v>
+      </c>
+      <c r="F38">
+        <v>-0.08611546779589833</v>
+      </c>
+      <c r="G38">
+        <v>0.004078195474562213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03891846928351235</v>
+        <v>0.03863304797463182</v>
       </c>
       <c r="C39">
-        <v>0.08354113222174947</v>
+        <v>-0.07407983523027387</v>
       </c>
       <c r="D39">
-        <v>-0.00458936045054037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0469225958540164</v>
+      </c>
+      <c r="E39">
+        <v>0.01281329077564744</v>
+      </c>
+      <c r="F39">
+        <v>-0.08464432648713908</v>
+      </c>
+      <c r="G39">
+        <v>-0.03460869899447215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01816412244290622</v>
+        <v>0.01890106770936481</v>
       </c>
       <c r="C40">
-        <v>0.0261363417556307</v>
+        <v>-0.0379286593246394</v>
       </c>
       <c r="D40">
-        <v>-0.01883945904719733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03369053426745708</v>
+      </c>
+      <c r="E40">
+        <v>-0.03337625542885252</v>
+      </c>
+      <c r="F40">
+        <v>-0.1181816681437161</v>
+      </c>
+      <c r="G40">
+        <v>0.03776840795693372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01151380711489596</v>
+        <v>0.01920031664490469</v>
       </c>
       <c r="C41">
-        <v>-8.945398681608172e-05</v>
+        <v>0.0002345090802872549</v>
       </c>
       <c r="D41">
-        <v>0.00777726269097455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01559184659015791</v>
+      </c>
+      <c r="E41">
+        <v>-0.01769066066807226</v>
+      </c>
+      <c r="F41">
+        <v>-0.08679550775152063</v>
+      </c>
+      <c r="G41">
+        <v>-0.006390996676791923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.006699102918664332</v>
+        <v>0.004447996663015747</v>
       </c>
       <c r="C42">
-        <v>0.03074266770459293</v>
+        <v>-0.01636749221349221</v>
       </c>
       <c r="D42">
-        <v>-0.03603566854109048</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.005913488123292204</v>
+      </c>
+      <c r="E42">
+        <v>-0.03440510219166936</v>
+      </c>
+      <c r="F42">
+        <v>0.0227598092577441</v>
+      </c>
+      <c r="G42">
+        <v>-0.02030992677703756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03452794002449486</v>
+        <v>0.03365965345900795</v>
       </c>
       <c r="C43">
-        <v>0.01163174447899515</v>
+        <v>-0.0135496521476203</v>
       </c>
       <c r="D43">
-        <v>0.006327489794885315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03425082242422058</v>
+      </c>
+      <c r="E43">
+        <v>-0.01516211080100778</v>
+      </c>
+      <c r="F43">
+        <v>-0.1099754375743545</v>
+      </c>
+      <c r="G43">
+        <v>0.01511779498214028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0223030903706666</v>
+        <v>0.01835720953140814</v>
       </c>
       <c r="C44">
-        <v>0.05490532722698503</v>
+        <v>-0.05421439094814522</v>
       </c>
       <c r="D44">
-        <v>-0.003548315388237665</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03610664953366771</v>
+      </c>
+      <c r="E44">
+        <v>-0.02677592887135431</v>
+      </c>
+      <c r="F44">
+        <v>-0.1113510619023208</v>
+      </c>
+      <c r="G44">
+        <v>-0.01549910886791831</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001013464819920023</v>
+        <v>0.01127331654429543</v>
       </c>
       <c r="C46">
-        <v>0.01444036709489712</v>
+        <v>-0.01901098558874959</v>
       </c>
       <c r="D46">
-        <v>0.01723722094965178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.005392221469021584</v>
+      </c>
+      <c r="E46">
+        <v>-0.01718399343886515</v>
+      </c>
+      <c r="F46">
+        <v>-0.1094023564459739</v>
+      </c>
+      <c r="G46">
+        <v>-0.009961237746777842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07868598750578823</v>
+        <v>0.08743837795171891</v>
       </c>
       <c r="C47">
-        <v>0.0681456602311965</v>
+        <v>-0.07213598398774007</v>
       </c>
       <c r="D47">
-        <v>0.006054708183125149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009673076575150636</v>
+      </c>
+      <c r="E47">
+        <v>-0.04110315547487992</v>
+      </c>
+      <c r="F47">
+        <v>-0.09152781581763274</v>
+      </c>
+      <c r="G47">
+        <v>0.03181097024044218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01824369307453989</v>
+        <v>0.01792455076417083</v>
       </c>
       <c r="C48">
-        <v>0.01049396346593433</v>
+        <v>-0.01539226492487775</v>
       </c>
       <c r="D48">
-        <v>0.009480959622064885</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0133510183971442</v>
+      </c>
+      <c r="E48">
+        <v>-0.02362713823931433</v>
+      </c>
+      <c r="F48">
+        <v>-0.1072108349584562</v>
+      </c>
+      <c r="G48">
+        <v>-0.005401471973773871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08765004421045756</v>
+        <v>0.07528651936809735</v>
       </c>
       <c r="C50">
-        <v>0.06676580676678816</v>
+        <v>-0.06722952405716122</v>
       </c>
       <c r="D50">
-        <v>0.01791683554260414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002473834765166654</v>
+      </c>
+      <c r="E50">
+        <v>-0.03516373728470551</v>
+      </c>
+      <c r="F50">
+        <v>-0.0917913166167634</v>
+      </c>
+      <c r="G50">
+        <v>0.06659153313683408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01790440792795615</v>
+        <v>0.01258923508932236</v>
       </c>
       <c r="C51">
-        <v>0.03913298254728325</v>
+        <v>-0.0332265752321447</v>
       </c>
       <c r="D51">
-        <v>0.008931754698154977</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04171406020600737</v>
+      </c>
+      <c r="E51">
+        <v>0.004186556528394671</v>
+      </c>
+      <c r="F51">
+        <v>-0.09937660760920609</v>
+      </c>
+      <c r="G51">
+        <v>-0.02052111096192695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09901435414284043</v>
+        <v>0.0920832994983582</v>
       </c>
       <c r="C53">
-        <v>0.06874113342429874</v>
+        <v>-0.08563490307662548</v>
       </c>
       <c r="D53">
-        <v>0.02749688463243175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03223364517784308</v>
+      </c>
+      <c r="E53">
+        <v>-0.04876489024126836</v>
+      </c>
+      <c r="F53">
+        <v>-0.1005330649848882</v>
+      </c>
+      <c r="G53">
+        <v>0.03967863154910353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0307686302054846</v>
+        <v>0.03260335365006997</v>
       </c>
       <c r="C54">
-        <v>0.006132429127818679</v>
+        <v>-0.02233451122509982</v>
       </c>
       <c r="D54">
-        <v>0.001781994775710361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02408674952329195</v>
+      </c>
+      <c r="E54">
+        <v>-0.01297534941178478</v>
+      </c>
+      <c r="F54">
+        <v>-0.107099799598959</v>
+      </c>
+      <c r="G54">
+        <v>-0.004129058839278725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07511081444666966</v>
+        <v>0.0829178833877556</v>
       </c>
       <c r="C55">
-        <v>0.0643970393565465</v>
+        <v>-0.06875094007435384</v>
       </c>
       <c r="D55">
-        <v>0.02603866164515004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03743854487183293</v>
+      </c>
+      <c r="E55">
+        <v>-0.04443740681041265</v>
+      </c>
+      <c r="F55">
+        <v>-0.06691425478492088</v>
+      </c>
+      <c r="G55">
+        <v>0.03493173747461375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1519172893860748</v>
+        <v>0.1457150217953309</v>
       </c>
       <c r="C56">
-        <v>0.08943483959190186</v>
+        <v>-0.1007613193231781</v>
       </c>
       <c r="D56">
-        <v>0.02271409578500305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03944467304418766</v>
+      </c>
+      <c r="E56">
+        <v>-0.05132378899034857</v>
+      </c>
+      <c r="F56">
+        <v>-0.0600761268623109</v>
+      </c>
+      <c r="G56">
+        <v>0.04265948459826308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.005167350430078607</v>
+        <v>0.002117120408708333</v>
       </c>
       <c r="C57">
-        <v>0.007612233748682401</v>
+        <v>-0.00372829272223151</v>
       </c>
       <c r="D57">
-        <v>-0.03113825771204346</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02771715110867354</v>
+      </c>
+      <c r="E57">
+        <v>-0.003212193657438971</v>
+      </c>
+      <c r="F57">
+        <v>-0.01058291452200629</v>
+      </c>
+      <c r="G57">
+        <v>-0.003047822528286073</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06403939844918495</v>
+        <v>0.03736777986656933</v>
       </c>
       <c r="C58">
-        <v>0.08102810269332475</v>
+        <v>-0.04033598362547017</v>
       </c>
       <c r="D58">
-        <v>-0.9735821229943334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6684354829629886</v>
+      </c>
+      <c r="E58">
+        <v>-0.6366509737463263</v>
+      </c>
+      <c r="F58">
+        <v>0.3127171768716606</v>
+      </c>
+      <c r="G58">
+        <v>0.02785481041007957</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1425392757140485</v>
+        <v>0.146916266021794</v>
       </c>
       <c r="C59">
-        <v>-0.2216692583926629</v>
+        <v>0.2039564474188821</v>
       </c>
       <c r="D59">
-        <v>-0.01336429782402537</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02159697069616992</v>
+      </c>
+      <c r="E59">
+        <v>-0.01465814481992624</v>
+      </c>
+      <c r="F59">
+        <v>-0.0372253013771088</v>
+      </c>
+      <c r="G59">
+        <v>-0.02470815203444855</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3123551694571675</v>
+        <v>0.28461381504946</v>
       </c>
       <c r="C60">
-        <v>0.08523823136740621</v>
+        <v>-0.09065732952498784</v>
       </c>
       <c r="D60">
-        <v>0.01131085281499459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1524292315240992</v>
+      </c>
+      <c r="E60">
+        <v>0.293005626869894</v>
+      </c>
+      <c r="F60">
+        <v>0.1479269165612416</v>
+      </c>
+      <c r="G60">
+        <v>0.06483785851623843</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03710696582260468</v>
+        <v>0.0417244279582011</v>
       </c>
       <c r="C61">
-        <v>0.06188038066991536</v>
+        <v>-0.06327648538005913</v>
       </c>
       <c r="D61">
-        <v>-0.002486731831481808</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03783414615541132</v>
+      </c>
+      <c r="E61">
+        <v>0.002525981670623746</v>
+      </c>
+      <c r="F61">
+        <v>-0.08584814817363244</v>
+      </c>
+      <c r="G61">
+        <v>0.0004802047003139437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01796522743807176</v>
+        <v>0.01756356032263641</v>
       </c>
       <c r="C63">
-        <v>0.02735040656185266</v>
+        <v>-0.02895589696949322</v>
       </c>
       <c r="D63">
-        <v>0.01724586816105564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01380229636948461</v>
+      </c>
+      <c r="E63">
+        <v>-0.01389928776398201</v>
+      </c>
+      <c r="F63">
+        <v>-0.09065549410938618</v>
+      </c>
+      <c r="G63">
+        <v>0.01863143435934762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04909300899426122</v>
+        <v>0.05440647464715995</v>
       </c>
       <c r="C64">
-        <v>0.02828264208987463</v>
+        <v>-0.04677688793596312</v>
       </c>
       <c r="D64">
-        <v>0.01458370021780052</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008785826338215872</v>
+      </c>
+      <c r="E64">
+        <v>0.001579201500878247</v>
+      </c>
+      <c r="F64">
+        <v>-0.09360920244740038</v>
+      </c>
+      <c r="G64">
+        <v>-0.01693709097578062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0858368775932595</v>
+        <v>0.06839874452344938</v>
       </c>
       <c r="C65">
-        <v>0.06225378655729624</v>
+        <v>-0.04249898576825618</v>
       </c>
       <c r="D65">
-        <v>-0.006596195890490071</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07398900091270262</v>
+      </c>
+      <c r="E65">
+        <v>0.006747335704770363</v>
+      </c>
+      <c r="F65">
+        <v>-0.03619527161500749</v>
+      </c>
+      <c r="G65">
+        <v>-0.00587203029739946</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06222167048442785</v>
+        <v>0.05250793359094812</v>
       </c>
       <c r="C66">
-        <v>0.1191006917194066</v>
+        <v>-0.0984991632365665</v>
       </c>
       <c r="D66">
-        <v>-0.008256158674187091</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07088598118969527</v>
+      </c>
+      <c r="E66">
+        <v>0.01584937190134698</v>
+      </c>
+      <c r="F66">
+        <v>-0.08905105511029106</v>
+      </c>
+      <c r="G66">
+        <v>-0.01583627565394628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06453053767464943</v>
+        <v>0.05243227878964747</v>
       </c>
       <c r="C67">
-        <v>0.02562120941061433</v>
+        <v>-0.0264983575380282</v>
       </c>
       <c r="D67">
-        <v>0.01607270823030937</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.007147738760141814</v>
+      </c>
+      <c r="E67">
+        <v>-0.007673429866850538</v>
+      </c>
+      <c r="F67">
+        <v>-0.07012170721763006</v>
+      </c>
+      <c r="G67">
+        <v>0.01035801944581518</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1185521780870639</v>
+        <v>0.148017166554614</v>
       </c>
       <c r="C68">
-        <v>-0.2883741458421235</v>
+        <v>0.2684880326872934</v>
       </c>
       <c r="D68">
-        <v>-0.02848167549306117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.009527869590661903</v>
+      </c>
+      <c r="E68">
+        <v>-0.04376738079369021</v>
+      </c>
+      <c r="F68">
+        <v>-0.02379983241027875</v>
+      </c>
+      <c r="G68">
+        <v>-0.004023886314498955</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08558100452560825</v>
+        <v>0.08700497647184587</v>
       </c>
       <c r="C69">
-        <v>0.06578372680441613</v>
+        <v>-0.0789608217806604</v>
       </c>
       <c r="D69">
-        <v>0.03303491398423795</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01287086345824715</v>
+      </c>
+      <c r="E69">
+        <v>-0.01388594441533021</v>
+      </c>
+      <c r="F69">
+        <v>-0.09698895285642742</v>
+      </c>
+      <c r="G69">
+        <v>0.00507185490941294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1222489933516436</v>
+        <v>0.1377565008970023</v>
       </c>
       <c r="C71">
-        <v>-0.2404907866256678</v>
+        <v>0.2384624968936581</v>
       </c>
       <c r="D71">
-        <v>-0.02886811602342461</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02061155200166735</v>
+      </c>
+      <c r="E71">
+        <v>-0.04464303092702432</v>
+      </c>
+      <c r="F71">
+        <v>-0.06883430246881686</v>
+      </c>
+      <c r="G71">
+        <v>0.01478298048845093</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07881714446290537</v>
+        <v>0.08929036531770383</v>
       </c>
       <c r="C72">
-        <v>0.0569182363370133</v>
+        <v>-0.05642177430022893</v>
       </c>
       <c r="D72">
-        <v>0.04584022099215952</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.005992525900211529</v>
+      </c>
+      <c r="E72">
+        <v>0.0224978522035584</v>
+      </c>
+      <c r="F72">
+        <v>-0.07980175507058133</v>
+      </c>
+      <c r="G72">
+        <v>0.008707253145085955</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4401359342522241</v>
+        <v>0.3578064004934481</v>
       </c>
       <c r="C73">
-        <v>0.08332831879580908</v>
+        <v>-0.06907167944779564</v>
       </c>
       <c r="D73">
-        <v>-0.004947412588951641</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3370748086247419</v>
+      </c>
+      <c r="E73">
+        <v>0.5218407600935431</v>
+      </c>
+      <c r="F73">
+        <v>0.3125124824387607</v>
+      </c>
+      <c r="G73">
+        <v>0.1604287617556394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1171524305952438</v>
+        <v>0.1118143833174238</v>
       </c>
       <c r="C74">
-        <v>0.115186680931181</v>
+        <v>-0.1037096846826039</v>
       </c>
       <c r="D74">
-        <v>0.02314483662943866</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01693449360849333</v>
+      </c>
+      <c r="E74">
+        <v>-0.06163758594383766</v>
+      </c>
+      <c r="F74">
+        <v>-0.07722546502507519</v>
+      </c>
+      <c r="G74">
+        <v>0.05600362895597844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2634277306279888</v>
+        <v>0.2591001965397028</v>
       </c>
       <c r="C75">
-        <v>0.1190691428582703</v>
+        <v>-0.1329809406433466</v>
       </c>
       <c r="D75">
-        <v>0.03470734846413764</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1049699193167072</v>
+      </c>
+      <c r="E75">
+        <v>-0.1197821193988525</v>
+      </c>
+      <c r="F75">
+        <v>-0.02812493839423717</v>
+      </c>
+      <c r="G75">
+        <v>0.0626541733478933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1180517490999827</v>
+        <v>0.1303440985423976</v>
       </c>
       <c r="C76">
-        <v>0.1008385997336824</v>
+        <v>-0.1019704233315118</v>
       </c>
       <c r="D76">
-        <v>0.02939730726508334</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04760736507718569</v>
+      </c>
+      <c r="E76">
+        <v>-0.08169245575656618</v>
+      </c>
+      <c r="F76">
+        <v>-0.08020911978867866</v>
+      </c>
+      <c r="G76">
+        <v>0.04540559664194151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07067875888246826</v>
+        <v>0.0681067839543837</v>
       </c>
       <c r="C77">
-        <v>0.05829248721428947</v>
+        <v>-0.06268477605692542</v>
       </c>
       <c r="D77">
-        <v>-0.02742037468289549</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05626090270658529</v>
+      </c>
+      <c r="E77">
+        <v>-0.03877384120893745</v>
+      </c>
+      <c r="F77">
+        <v>-0.09872328778867484</v>
+      </c>
+      <c r="G77">
+        <v>-0.1457099107112668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04416541473476748</v>
+        <v>0.04318477731929975</v>
       </c>
       <c r="C78">
-        <v>0.04855832209602429</v>
+        <v>-0.05423399465953915</v>
       </c>
       <c r="D78">
-        <v>-0.004085011951745757</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05873577489538592</v>
+      </c>
+      <c r="E78">
+        <v>0.01890081653958478</v>
+      </c>
+      <c r="F78">
+        <v>-0.09678390574866118</v>
+      </c>
+      <c r="G78">
+        <v>-0.01211116165907069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.00630878491574853</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.02578838129657886</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02040236943186603</v>
+      </c>
+      <c r="E79">
+        <v>-0.03158277756563166</v>
+      </c>
+      <c r="F79">
+        <v>-0.04034620223562044</v>
+      </c>
+      <c r="G79">
+        <v>0.0258338482185028</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0501062336498769</v>
+        <v>0.03996870616952253</v>
       </c>
       <c r="C80">
-        <v>0.0567149636369582</v>
+        <v>-0.04696079458641317</v>
       </c>
       <c r="D80">
-        <v>-0.01670689904092421</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04489049481591913</v>
+      </c>
+      <c r="E80">
+        <v>-0.0001712034704246203</v>
+      </c>
+      <c r="F80">
+        <v>-0.03427095472452008</v>
+      </c>
+      <c r="G80">
+        <v>-0.04755141984512311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1393403882740612</v>
+        <v>0.1427079440228832</v>
       </c>
       <c r="C81">
-        <v>0.07856055422243219</v>
+        <v>-0.09074624276087624</v>
       </c>
       <c r="D81">
-        <v>0.02740038036068601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07692562381352074</v>
+      </c>
+      <c r="E81">
+        <v>-0.0979745965909148</v>
+      </c>
+      <c r="F81">
+        <v>-0.03990686261023182</v>
+      </c>
+      <c r="G81">
+        <v>0.0479362161649409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.06632875405368932</v>
+        <v>0.1888788453279942</v>
       </c>
       <c r="C82">
-        <v>0.04042093850375617</v>
+        <v>-0.1313222321756578</v>
       </c>
       <c r="D82">
-        <v>0.01838931849401909</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2126694955542094</v>
+      </c>
+      <c r="E82">
+        <v>-0.05302265719947939</v>
+      </c>
+      <c r="F82">
+        <v>-0.04505502513052872</v>
+      </c>
+      <c r="G82">
+        <v>-0.005082694834940655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0288342146803085</v>
+        <v>0.02941218262497987</v>
       </c>
       <c r="C83">
-        <v>0.02046871748549587</v>
+        <v>-0.03294004504806341</v>
       </c>
       <c r="D83">
-        <v>-0.01416035014328773</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03301762423040253</v>
+      </c>
+      <c r="E83">
+        <v>0.007185249330676349</v>
+      </c>
+      <c r="F83">
+        <v>-0.05477476640316337</v>
+      </c>
+      <c r="G83">
+        <v>-0.03016027740627266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2425487665266325</v>
+        <v>0.2118159372150261</v>
       </c>
       <c r="C85">
-        <v>0.1182215399395493</v>
+        <v>-0.119786556269151</v>
       </c>
       <c r="D85">
-        <v>0.1042445550910124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1045839591823029</v>
+      </c>
+      <c r="E85">
+        <v>-0.04195379895923086</v>
+      </c>
+      <c r="F85">
+        <v>0.00945389337214134</v>
+      </c>
+      <c r="G85">
+        <v>0.1127747696621368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01350772222560326</v>
+        <v>0.01535816067818392</v>
       </c>
       <c r="C86">
-        <v>0.02654446193082786</v>
+        <v>-0.02773579023202589</v>
       </c>
       <c r="D86">
-        <v>-0.007285175021769969</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07327420698021267</v>
+      </c>
+      <c r="E86">
+        <v>0.0005480066908707967</v>
+      </c>
+      <c r="F86">
+        <v>-0.1608429441252603</v>
+      </c>
+      <c r="G86">
+        <v>-0.03460132153720694</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01442061172911612</v>
+        <v>0.02120935115991555</v>
       </c>
       <c r="C87">
-        <v>0.02441639667674723</v>
+        <v>-0.01640144859015342</v>
       </c>
       <c r="D87">
-        <v>-0.07299431201435196</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09556934478557243</v>
+      </c>
+      <c r="E87">
+        <v>-0.04638537108081798</v>
+      </c>
+      <c r="F87">
+        <v>-0.1104565293183131</v>
+      </c>
+      <c r="G87">
+        <v>-0.05190621795126098</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1020634993271336</v>
+        <v>0.09106889687311917</v>
       </c>
       <c r="C88">
-        <v>0.06669912924228338</v>
+        <v>-0.05938366563444053</v>
       </c>
       <c r="D88">
-        <v>0.01634486972927719</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.008881856262940985</v>
+      </c>
+      <c r="E88">
+        <v>-0.01273479139613034</v>
+      </c>
+      <c r="F88">
+        <v>-0.08350294215622794</v>
+      </c>
+      <c r="G88">
+        <v>-0.0367724542664887</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1940146084461173</v>
+        <v>0.2081040932825909</v>
       </c>
       <c r="C89">
-        <v>-0.3719525327089197</v>
+        <v>0.3729524845065288</v>
       </c>
       <c r="D89">
-        <v>0.01721532236528582</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01656971495257152</v>
+      </c>
+      <c r="E89">
+        <v>-0.01005060537792431</v>
+      </c>
+      <c r="F89">
+        <v>-0.07602516146266769</v>
+      </c>
+      <c r="G89">
+        <v>-0.09184448299838203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1777528485685953</v>
+        <v>0.195194773700005</v>
       </c>
       <c r="C90">
-        <v>-0.3478774543246575</v>
+        <v>0.3234362127679133</v>
       </c>
       <c r="D90">
-        <v>-0.02370895488637731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01282058474658197</v>
+      </c>
+      <c r="E90">
+        <v>-0.05250567833630993</v>
+      </c>
+      <c r="F90">
+        <v>-0.05200023316867857</v>
+      </c>
+      <c r="G90">
+        <v>-0.0272251853333102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2027977693946743</v>
+        <v>0.1942528611038509</v>
       </c>
       <c r="C91">
-        <v>0.1070045070576505</v>
+        <v>-0.130392352361596</v>
       </c>
       <c r="D91">
-        <v>0.03797190820135377</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08895145031451679</v>
+      </c>
+      <c r="E91">
+        <v>-0.09704700740797373</v>
+      </c>
+      <c r="F91">
+        <v>-0.05515749489683418</v>
+      </c>
+      <c r="G91">
+        <v>0.04716516474281095</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1741334526614353</v>
+        <v>0.1785037995716826</v>
       </c>
       <c r="C92">
-        <v>-0.2773338581626814</v>
+        <v>0.2792841600918883</v>
       </c>
       <c r="D92">
-        <v>-0.01667884632731959</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00455913069383688</v>
+      </c>
+      <c r="E92">
+        <v>-0.07697057619294266</v>
+      </c>
+      <c r="F92">
+        <v>-0.07453848660831057</v>
+      </c>
+      <c r="G92">
+        <v>-0.02792674219149027</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1909617656213743</v>
+        <v>0.2162442692733118</v>
       </c>
       <c r="C93">
-        <v>-0.3309409890212106</v>
+        <v>0.3228672803125351</v>
       </c>
       <c r="D93">
-        <v>-0.02309479777384933</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004700709228173704</v>
+      </c>
+      <c r="E93">
+        <v>-0.03833371030169325</v>
+      </c>
+      <c r="F93">
+        <v>-0.0595985586956659</v>
+      </c>
+      <c r="G93">
+        <v>0.01208134118889366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2749404976790721</v>
+        <v>0.3425642223264091</v>
       </c>
       <c r="C94">
-        <v>0.1388078202541118</v>
+        <v>-0.180283607458526</v>
       </c>
       <c r="D94">
-        <v>0.06688781448222313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4182181864508161</v>
+      </c>
+      <c r="E94">
+        <v>-0.2953394973658189</v>
+      </c>
+      <c r="F94">
+        <v>0.4491631287497519</v>
+      </c>
+      <c r="G94">
+        <v>-0.1992115000107853</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08510281842382073</v>
+        <v>0.08175741125494065</v>
       </c>
       <c r="C95">
-        <v>0.0886398196747573</v>
+        <v>-0.08685299288976427</v>
       </c>
       <c r="D95">
-        <v>-0.05447590665031302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1395498484844829</v>
+      </c>
+      <c r="E95">
+        <v>0.1460566299410858</v>
+      </c>
+      <c r="F95">
+        <v>-0.002126922633182104</v>
+      </c>
+      <c r="G95">
+        <v>-0.9070720367597559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2105592841862884</v>
+        <v>0.1933408901873135</v>
       </c>
       <c r="C98">
-        <v>0.03364416406654413</v>
+        <v>-0.03768499233381552</v>
       </c>
       <c r="D98">
-        <v>-0.02489727470011418</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1467593007936038</v>
+      </c>
+      <c r="E98">
+        <v>0.1801446084400417</v>
+      </c>
+      <c r="F98">
+        <v>0.04254596548317471</v>
+      </c>
+      <c r="G98">
+        <v>0.1025254650554346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01087933311192564</v>
+        <v>0.009422433680596299</v>
       </c>
       <c r="C101">
-        <v>0.02230041968034628</v>
+        <v>-0.02296436404833267</v>
       </c>
       <c r="D101">
-        <v>0.01128585757100803</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01269346092500735</v>
+      </c>
+      <c r="E101">
+        <v>-0.01231157087918736</v>
+      </c>
+      <c r="F101">
+        <v>-0.09946558449973762</v>
+      </c>
+      <c r="G101">
+        <v>-0.004055362685204722</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1248024033590828</v>
+        <v>0.1256332428569898</v>
       </c>
       <c r="C102">
-        <v>0.07338145545336082</v>
+        <v>-0.09516646155992674</v>
       </c>
       <c r="D102">
-        <v>0.03087849584096653</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04655860096902593</v>
+      </c>
+      <c r="E102">
+        <v>-0.01127592038766838</v>
+      </c>
+      <c r="F102">
+        <v>-0.02740155787520224</v>
+      </c>
+      <c r="G102">
+        <v>0.01437570198232468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
